--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_20.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_20.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995781436191773</v>
+        <v>0.9474995228284673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8256746773490582</v>
+        <v>0.7174489261597945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8145595817058003</v>
+        <v>0.7776961864856384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.998823990349903</v>
+        <v>0.9477069169317244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001755988447403936</v>
+        <v>0.1685416093054646</v>
       </c>
       <c r="G2" t="n">
-        <v>1.165714235261151</v>
+        <v>1.88942033179752</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6633096237851021</v>
+        <v>0.7951678510251554</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003669746029639192</v>
+        <v>0.3226626894544265</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1101795997053889</v>
+        <v>0.9874123464056676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04190451583545544</v>
+        <v>0.4105381946974783</v>
       </c>
       <c r="L2" t="n">
-        <v>1.026998808372653</v>
+        <v>0.928509988532381</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0425644700707161</v>
+        <v>0.4170037608763297</v>
       </c>
       <c r="N2" t="n">
-        <v>142.689446725436</v>
+        <v>37.56114524035191</v>
       </c>
       <c r="O2" t="n">
-        <v>284.0246192686524</v>
+        <v>74.52572882857773</v>
       </c>
     </row>
     <row r="3">
@@ -561,193 +561,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995336793253475</v>
+        <v>0.9475260542081452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8252302745865647</v>
+        <v>0.7174456605403747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8133826680148922</v>
+        <v>0.7775892333595498</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987895754485477</v>
+        <v>0.9478872469343614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001941072257526126</v>
+        <v>0.1684564359571651</v>
       </c>
       <c r="G3" t="n">
-        <v>1.168685958580231</v>
+        <v>1.889442169009616</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6675193758161038</v>
+        <v>0.7955504161556762</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00377713796098813</v>
+        <v>0.3215500037945613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1177716143730563</v>
+        <v>0.9911494982461534</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04405760158617495</v>
+        <v>0.4104344478198256</v>
       </c>
       <c r="L3" t="n">
-        <v>1.029844523177758</v>
+        <v>0.9285461163685381</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04475146476971331</v>
+        <v>0.4168983800890628</v>
       </c>
       <c r="N3" t="n">
-        <v>142.4890294970597</v>
+        <v>37.56215620586118</v>
       </c>
       <c r="O3" t="n">
-        <v>283.8242020402761</v>
+        <v>74.52673979408699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_1</t>
+          <t>model_1_20_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994491249014763</v>
+        <v>0.9475523481442506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8251456444154888</v>
+        <v>0.7174425262642905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8154018633495941</v>
+        <v>0.777481509998208</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9990168199023135</v>
+        <v>0.9480691599995321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00229303230422531</v>
+        <v>0.1683720248709249</v>
       </c>
       <c r="G4" t="n">
-        <v>1.169251880923902</v>
+        <v>1.889463127928224</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6602968311835477</v>
+        <v>0.7959357363730363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003068020113276945</v>
+        <v>0.3204275502039356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1286022524568549</v>
+        <v>0.994922800347442</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04788561688258083</v>
+        <v>0.4103316035487943</v>
       </c>
       <c r="L4" t="n">
-        <v>1.035256006305517</v>
+        <v>0.9285819208772774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04863976748042617</v>
+        <v>0.4167939161235693</v>
       </c>
       <c r="N4" t="n">
-        <v>142.1557603740263</v>
+        <v>37.5631586281363</v>
       </c>
       <c r="O4" t="n">
-        <v>283.4909329172427</v>
+        <v>74.52774221636213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_5</t>
+          <t>model_1_20_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994768779919628</v>
+        <v>0.9475783806157898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8250913645808777</v>
+        <v>0.7174395107397571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8147705201030757</v>
+        <v>0.7773728064498269</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9989358358860244</v>
+        <v>0.9482526927844882</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002177509324155406</v>
+        <v>0.1682884531610319</v>
       </c>
       <c r="G5" t="n">
-        <v>1.169614850427882</v>
+        <v>1.889483292754663</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6625551093689592</v>
+        <v>0.7963245626626019</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003320731281264748</v>
+        <v>0.3192951024972351</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1235798555882025</v>
+        <v>0.9987331624939166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04666379028921039</v>
+        <v>0.4102297565523884</v>
       </c>
       <c r="L5" t="n">
-        <v>1.033479808514379</v>
+        <v>0.9286173693491606</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04739869833958864</v>
+        <v>0.4166904651387797</v>
       </c>
       <c r="N5" t="n">
-        <v>142.2591471344014</v>
+        <v>37.56415157761582</v>
       </c>
       <c r="O5" t="n">
-        <v>283.5943196776178</v>
+        <v>74.52873516584165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_0</t>
+          <t>model_1_20_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994425956742902</v>
+        <v>0.9476041762028127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8250726984437164</v>
+        <v>0.717436614142986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8153184203476187</v>
+        <v>0.7772633101540286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9990261753393942</v>
+        <v>0.948437915721563</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002320210386697036</v>
+        <v>0.1682056419184673</v>
       </c>
       <c r="G6" t="n">
-        <v>1.169739670973029</v>
+        <v>1.88950266231061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6605953019633105</v>
+        <v>0.796716224563712</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003038826408888982</v>
+        <v>0.3181522260876118</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1300084428746773</v>
+        <v>1.002580779609534</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04816856222368523</v>
+        <v>0.4101288113732895</v>
       </c>
       <c r="L6" t="n">
-        <v>1.035673876845429</v>
+        <v>0.9286524952548939</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04892716892781139</v>
+        <v>0.4165879301740181</v>
       </c>
       <c r="N6" t="n">
-        <v>142.1321948269886</v>
+        <v>37.56513597817973</v>
       </c>
       <c r="O6" t="n">
-        <v>283.4673673702051</v>
+        <v>74.52971956640555</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994729353925621</v>
+        <v>0.9476297270901917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8250537661912483</v>
+        <v>0.717433778481573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8146897323857216</v>
+        <v>0.7771527667356481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989419422101091</v>
+        <v>0.9486248567859534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002193920499415958</v>
+        <v>0.1681236162320348</v>
       </c>
       <c r="G7" t="n">
-        <v>1.169866271032459</v>
+        <v>1.889521624391535</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6628440823495939</v>
+        <v>0.7971116319615834</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00330167645585257</v>
+        <v>0.3169987483604154</v>
       </c>
       <c r="J7" t="n">
-        <v>0.124657592405633</v>
+        <v>1.006464530377365</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04683930506973773</v>
+        <v>0.4100287992715082</v>
       </c>
       <c r="L7" t="n">
-        <v>1.033732134876026</v>
+        <v>0.9286872879526014</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04757697730245888</v>
+        <v>0.4164863429816092</v>
       </c>
       <c r="N7" t="n">
-        <v>142.2441303064774</v>
+        <v>37.56611151850007</v>
       </c>
       <c r="O7" t="n">
-        <v>283.5793028496938</v>
+        <v>74.53069510672589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_6</t>
+          <t>model_1_20_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994820752166556</v>
+        <v>0.9476549551494926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8250033857588459</v>
+        <v>0.7174310859049698</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8146603327765656</v>
+        <v>0.7770415046240122</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989040943130498</v>
+        <v>0.9488134287754699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002155875737622613</v>
+        <v>0.1680426269164452</v>
       </c>
       <c r="G8" t="n">
-        <v>1.170203165215913</v>
+        <v>1.889539629663679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6629492430468578</v>
+        <v>0.7975096100835569</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003419781073406005</v>
+        <v>0.315835207377113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1220602249931856</v>
+        <v>1.010386879979487</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04643140895582012</v>
+        <v>0.4099300268539073</v>
       </c>
       <c r="L8" t="n">
-        <v>1.033147186134045</v>
+        <v>0.9287216410546282</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04716265723249359</v>
+        <v>0.4163860149971673</v>
       </c>
       <c r="N8" t="n">
-        <v>142.2791165264148</v>
+        <v>37.5670752002356</v>
       </c>
       <c r="O8" t="n">
-        <v>283.6142890696312</v>
+        <v>74.53165878846143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_3</t>
+          <t>model_1_20_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994688731277694</v>
+        <v>0.9476799001100679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8249768202822472</v>
+        <v>0.7174284946758354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8144424171820817</v>
+        <v>0.776929260523856</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9989552630674308</v>
+        <v>0.9490036758008467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002210829785064831</v>
+        <v>0.1679625464290683</v>
       </c>
       <c r="G9" t="n">
-        <v>1.170380808680253</v>
+        <v>1.889556957224833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6637287144928544</v>
+        <v>0.7979111007215289</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003260108630908817</v>
+        <v>0.3146613309623565</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1256598646655377</v>
+        <v>1.014347385862543</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04701946176919543</v>
+        <v>0.4098323394134098</v>
       </c>
       <c r="L9" t="n">
-        <v>1.033992119822756</v>
+        <v>0.928755608660518</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04775997128984241</v>
+        <v>0.4162867890771335</v>
       </c>
       <c r="N9" t="n">
-        <v>142.2287747311359</v>
+        <v>37.56802852471088</v>
       </c>
       <c r="O9" t="n">
-        <v>283.5639472743523</v>
+        <v>74.5326121129367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_2</t>
+          <t>model_1_20_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994556054751131</v>
+        <v>0.9477045107682504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8248754754448255</v>
+        <v>0.7174259776554146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8155780027650392</v>
+        <v>0.776816054787668</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990494060397174</v>
+        <v>0.9491956103262114</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002266056743451075</v>
+        <v>0.1678835391483806</v>
       </c>
       <c r="G10" t="n">
-        <v>1.171058502074741</v>
+        <v>1.889573788551975</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6596667907076506</v>
+        <v>0.7983160310758277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002966334852148781</v>
+        <v>0.3134770422090529</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1295944017734585</v>
+        <v>1.018348821641161</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04760311695100516</v>
+        <v>0.4097359383168391</v>
       </c>
       <c r="L10" t="n">
-        <v>1.034841249592759</v>
+        <v>0.9287891210461281</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04835281845732451</v>
+        <v>0.4161888697596576</v>
       </c>
       <c r="N10" t="n">
-        <v>142.1794281508986</v>
+        <v>37.56896951864279</v>
       </c>
       <c r="O10" t="n">
-        <v>283.514600694115</v>
+        <v>74.53355310686861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_7</t>
+          <t>model_1_20_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995166880627963</v>
+        <v>0.9477288162099036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8248235883536026</v>
+        <v>0.7174236375498406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8125211064930142</v>
+        <v>0.7767018924298829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9988409313387924</v>
+        <v>0.9493892854700089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002011798841508674</v>
+        <v>0.1678055117004066</v>
       </c>
       <c r="G11" t="n">
-        <v>1.171405471292667</v>
+        <v>1.889589436848724</v>
       </c>
       <c r="H11" t="n">
-        <v>0.670601131423654</v>
+        <v>0.7987243832101114</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003616881559768815</v>
+        <v>0.3122820133618033</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1245642140701873</v>
+        <v>1.022386414507854</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04485308062450866</v>
+        <v>0.4096407105017842</v>
       </c>
       <c r="L11" t="n">
-        <v>1.03093196398104</v>
+        <v>0.928822217817741</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04555947180771347</v>
+        <v>0.4160921422017085</v>
       </c>
       <c r="N11" t="n">
-        <v>142.4174520222247</v>
+        <v>37.56989927728915</v>
       </c>
       <c r="O11" t="n">
-        <v>283.7526245654411</v>
+        <v>74.53448286551497</v>
       </c>
     </row>
   </sheetData>
